--- a/Cambodian_All_dataset.xlsx
+++ b/Cambodian_All_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SCHOOL\BigData\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Royal University of Phnom Penh\SIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1C261B-5029-4845-951E-29B5F26B72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{174C640E-91A3-469A-965F-15C48256520E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cambodian_All_dataset" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1738,20 +1738,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GK27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BQ2" sqref="BQ2"/>
+      <selection activeCell="BS17" sqref="BS17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="179" width="30.77734375" customWidth="1"/>
-    <col min="180" max="193" width="25.77734375" customWidth="1"/>
+    <col min="1" max="179" width="30.7109375" customWidth="1"/>
+    <col min="180" max="193" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:193" s="3" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:193" s="3" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:193" s="3" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:193" s="3" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="GJ2" s="2"/>
       <c r="GK2" s="2"/>
     </row>
-    <row r="3" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>2.3934826770000002</v>
       </c>
     </row>
-    <row r="4" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>2.3757688140000002</v>
       </c>
     </row>
-    <row r="5" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>2.3489806459999998</v>
       </c>
     </row>
-    <row r="6" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>193</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>2.3632986069999999</v>
       </c>
     </row>
-    <row r="7" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>193</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>2.467234865</v>
       </c>
     </row>
-    <row r="8" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>193</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>3.3256298809999998</v>
       </c>
     </row>
-    <row r="9" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>193</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>3.2671370940000002</v>
       </c>
     </row>
-    <row r="10" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>3.2558229949999999</v>
       </c>
     </row>
-    <row r="11" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>193</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>3.2430778650000001</v>
       </c>
     </row>
-    <row r="12" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>193</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>3.2113927289999999</v>
       </c>
     </row>
-    <row r="13" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>3.175027434</v>
       </c>
     </row>
-    <row r="14" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>3.118540361</v>
       </c>
     </row>
-    <row r="15" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>193</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>3.094250411</v>
       </c>
     </row>
-    <row r="16" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>3.0575753950000002</v>
       </c>
     </row>
-    <row r="17" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>2.98134356</v>
       </c>
     </row>
-    <row r="18" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>193</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>2.899692092</v>
       </c>
     </row>
-    <row r="19" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>193</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>2.9378962290000001</v>
       </c>
     </row>
-    <row r="20" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>193</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>2.948412356</v>
       </c>
     </row>
-    <row r="21" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>2.8640361589999999</v>
       </c>
     </row>
-    <row r="22" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>193</v>
       </c>
@@ -14291,13 +14291,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:193" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:193" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>217</v>
       </c>
